--- a/data/Table S3. Designed and Predicted Sequences.xlsx
+++ b/data/Table S3. Designed and Predicted Sequences.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="25600" windowHeight="14280" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="25600" windowHeight="14280" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ClickTags" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="445">
   <si>
     <t>BarCode</t>
   </si>
@@ -951,15 +951,6 @@
     <t>XLOC_036574</t>
   </si>
   <si>
-    <t>F primer: GATCAACAAAGCCATGGTAACATGGTTG. R: CTGAACCTTCGTGAATCACGGC</t>
-  </si>
-  <si>
-    <t>pp9 population marker gene</t>
-  </si>
-  <si>
-    <t>Unknown/Clytia-specific</t>
-  </si>
-  <si>
     <t>XLOC_039385</t>
   </si>
   <si>
@@ -1510,7 +1501,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1611,10 +1602,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1708,7 +1695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1781,28 +1768,26 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2572,7 +2557,9 @@
   </sheetPr>
   <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:E36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3308,25 +3295,26 @@
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="44" t="s">
-        <v>262</v>
-      </c>
-      <c r="C36" s="45" t="s">
         <v>263</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="B36" s="45"/>
+      <c r="C36" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="D36" s="32" t="s">
         <v>265</v>
       </c>
+      <c r="E36" s="32" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="37" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="46" t="s">
+      <c r="A37" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="B37" s="47"/>
+      <c r="B37" s="45"/>
       <c r="C37" s="32" t="s">
         <v>267</v>
       </c>
@@ -3338,10 +3326,10 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="44" t="s">
         <v>269</v>
       </c>
-      <c r="B38" s="47"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="32" t="s">
         <v>270</v>
       </c>
@@ -3353,110 +3341,96 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="44" t="s">
         <v>272</v>
       </c>
-      <c r="B39" s="47"/>
+      <c r="B39" s="45"/>
       <c r="C39" s="32" t="s">
         <v>273</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="D39" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="E39" s="32" t="s">
+      <c r="E39" s="44" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" s="45"/>
+      <c r="C40" s="46" t="s">
         <v>275</v>
       </c>
-      <c r="B40" s="47"/>
-      <c r="C40" s="32" t="s">
+      <c r="D40" s="44" t="s">
         <v>276</v>
       </c>
-      <c r="D40" s="46" t="s">
+      <c r="E40" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="45"/>
+      <c r="C41" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="E40" s="46" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="B41" s="47"/>
-      <c r="C41" s="48" t="s">
+      <c r="D41" s="44" t="s">
         <v>278</v>
       </c>
-      <c r="D41" s="46" t="s">
+      <c r="E41" s="44" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" s="45"/>
+      <c r="C42" s="46" t="s">
         <v>279</v>
       </c>
-      <c r="E41" s="46" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="B42" s="47"/>
-      <c r="C42" s="48" t="s">
+      <c r="D42" s="44" t="s">
         <v>280</v>
       </c>
-      <c r="D42" s="46" t="s">
+      <c r="E42" s="44" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" s="45"/>
+      <c r="C43" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="E42" s="46" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="B43" s="47"/>
-      <c r="C43" s="48" t="s">
+      <c r="D43" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="D43" s="46" t="s">
+      <c r="E43" s="32" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="45"/>
+      <c r="C44" s="47" t="s">
         <v>283</v>
       </c>
-      <c r="E43" s="46" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="B44" s="47"/>
-      <c r="C44" s="32" t="s">
+      <c r="D44" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="D44" s="32" t="s">
-        <v>285</v>
-      </c>
       <c r="E44" s="32" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" s="47"/>
-      <c r="C45" s="49" t="s">
-        <v>286</v>
-      </c>
-      <c r="D45" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="E45" s="32" t="s">
-        <v>287</v>
-      </c>
-    </row>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="13" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3469,1283 +3443,1283 @@
   </sheetPr>
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="48" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="50" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="49">
+        <v>0</v>
+      </c>
+      <c r="B2" s="48" t="s">
         <v>289</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C2" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="51">
+      <c r="D2" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="49">
         <v>0</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B3" s="48" t="s">
         <v>292</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C3" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="49">
+        <v>1</v>
+      </c>
+      <c r="B4" s="48" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="51">
-        <v>0</v>
-      </c>
-      <c r="B3" s="50" t="s">
+      <c r="C4" s="48" t="s">
         <v>295</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="D4" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="49">
+        <v>2</v>
+      </c>
+      <c r="B5" s="48" t="s">
         <v>296</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="51">
-        <v>1</v>
-      </c>
-      <c r="B4" s="50" t="s">
+      <c r="C5" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="D5" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="49">
+        <v>3</v>
+      </c>
+      <c r="B6" s="48" t="s">
         <v>298</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="51">
-        <v>2</v>
-      </c>
-      <c r="B5" s="50" t="s">
+      <c r="C6" s="48" t="s">
         <v>299</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="D6" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="49">
+        <v>3</v>
+      </c>
+      <c r="B7" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="51">
-        <v>3</v>
-      </c>
-      <c r="B6" s="50" t="s">
+      <c r="C7" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="D7" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="49">
+        <v>4</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="48" t="s">
         <v>302</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="51">
-        <v>3</v>
-      </c>
-      <c r="B7" s="50" t="s">
+      <c r="D8" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="49">
+        <v>5</v>
+      </c>
+      <c r="B9" s="48" t="s">
         <v>303</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C9" s="48" t="s">
         <v>304</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="51">
-        <v>4</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>164</v>
-      </c>
-      <c r="C8" s="50" t="s">
+      <c r="D9" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="49">
+        <v>6</v>
+      </c>
+      <c r="B10" s="48" t="s">
         <v>305</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="51">
-        <v>5</v>
-      </c>
-      <c r="B9" s="50" t="s">
+      <c r="C10" s="48" t="s">
         <v>306</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="D10" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="49">
+        <v>7</v>
+      </c>
+      <c r="B11" s="48" t="s">
         <v>307</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="51">
-        <v>6</v>
-      </c>
-      <c r="B10" s="50" t="s">
+      <c r="C11" s="48" t="s">
         <v>308</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="D11" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="49">
+        <v>8</v>
+      </c>
+      <c r="B12" s="48" t="s">
         <v>309</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="51">
-        <v>7</v>
-      </c>
-      <c r="B11" s="50" t="s">
+      <c r="C12" s="48" t="s">
         <v>310</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="D12" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="49">
+        <v>8</v>
+      </c>
+      <c r="B13" s="48" t="s">
         <v>311</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="51">
-        <v>8</v>
-      </c>
-      <c r="B12" s="50" t="s">
+      <c r="C13" s="48" t="s">
         <v>312</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="D13" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="49">
+        <v>9</v>
+      </c>
+      <c r="B14" s="48" t="s">
         <v>313</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="51">
-        <v>8</v>
-      </c>
-      <c r="B13" s="50" t="s">
+      <c r="C14" s="48" t="s">
         <v>314</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="D14" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="49">
+        <v>10</v>
+      </c>
+      <c r="B15" s="48" t="s">
         <v>315</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="51">
-        <v>9</v>
-      </c>
-      <c r="B14" s="50" t="s">
+      <c r="C15" s="48" t="s">
         <v>316</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="D15" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="49">
+        <v>11</v>
+      </c>
+      <c r="B16" s="48" t="s">
         <v>317</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="51">
-        <v>10</v>
-      </c>
-      <c r="B15" s="50" t="s">
+      <c r="C16" s="48" t="s">
         <v>318</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="D16" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="49">
+        <v>11</v>
+      </c>
+      <c r="B17" s="48" t="s">
         <v>319</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="51">
-        <v>11</v>
-      </c>
-      <c r="B16" s="50" t="s">
+      <c r="C17" s="48" t="s">
         <v>320</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="D17" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="49">
+        <v>12</v>
+      </c>
+      <c r="B18" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="51">
-        <v>11</v>
-      </c>
-      <c r="B17" s="50" t="s">
+      <c r="C18" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="D18" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="49">
+        <v>13</v>
+      </c>
+      <c r="B19" s="48" t="s">
         <v>323</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="51">
-        <v>12</v>
-      </c>
-      <c r="B18" s="50" t="s">
+      <c r="C19" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="D19" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="49">
+        <v>14</v>
+      </c>
+      <c r="B20" s="48" t="s">
         <v>325</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="51">
-        <v>13</v>
-      </c>
-      <c r="B19" s="50" t="s">
+      <c r="C20" s="48" t="s">
         <v>326</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="D20" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="49">
+        <v>15</v>
+      </c>
+      <c r="B21" s="48" t="s">
         <v>327</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="51">
-        <v>14</v>
-      </c>
-      <c r="B20" s="50" t="s">
+      <c r="C21" s="48" t="s">
         <v>328</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="D21" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="49">
+        <v>15</v>
+      </c>
+      <c r="B22" s="48" t="s">
         <v>329</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="51">
-        <v>15</v>
-      </c>
-      <c r="B21" s="50" t="s">
+      <c r="C22" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="D22" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="49">
+        <v>16</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="48" t="s">
         <v>331</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="51">
-        <v>15</v>
-      </c>
-      <c r="B22" s="50" t="s">
+      <c r="D23" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="49">
+        <v>16</v>
+      </c>
+      <c r="B24" s="48" t="s">
         <v>332</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C24" s="48" t="s">
         <v>333</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="51">
-        <v>16</v>
-      </c>
-      <c r="B23" s="50" t="s">
-        <v>144</v>
-      </c>
-      <c r="C23" s="50" t="s">
+      <c r="D24" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="49">
+        <v>17</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="C25" s="48" t="s">
         <v>334</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="51">
-        <v>16</v>
-      </c>
-      <c r="B24" s="50" t="s">
+      <c r="D25" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="49">
+        <v>17</v>
+      </c>
+      <c r="B26" s="48" t="s">
         <v>335</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C26" s="48" t="s">
         <v>336</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="51">
-        <v>17</v>
-      </c>
-      <c r="B25" s="50" t="s">
+      <c r="D26" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="49">
+        <v>18</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="49">
+        <v>18</v>
+      </c>
+      <c r="B28" s="48" t="s">
+        <v>339</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>340</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="49">
+        <v>19</v>
+      </c>
+      <c r="B29" s="48" t="s">
+        <v>341</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>342</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="49">
+        <v>20</v>
+      </c>
+      <c r="B30" s="48" t="s">
+        <v>343</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>344</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="49">
+        <v>21</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>271</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="49">
+        <v>21</v>
+      </c>
+      <c r="B32" s="48" t="s">
+        <v>345</v>
+      </c>
+      <c r="C32" s="48" t="s">
+        <v>346</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="49">
+        <v>22</v>
+      </c>
+      <c r="B33" s="48" t="s">
+        <v>347</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>348</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="49">
+        <v>22</v>
+      </c>
+      <c r="B34" s="48" t="s">
+        <v>349</v>
+      </c>
+      <c r="C34" s="48" t="s">
+        <v>350</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="49">
+        <v>23</v>
+      </c>
+      <c r="B35" s="48" t="s">
+        <v>351</v>
+      </c>
+      <c r="C35" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="49">
+        <v>24</v>
+      </c>
+      <c r="B36" s="48" t="s">
+        <v>353</v>
+      </c>
+      <c r="C36" s="48" t="s">
+        <v>354</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="49">
+        <v>24</v>
+      </c>
+      <c r="B37" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="49">
+        <v>25</v>
+      </c>
+      <c r="B38" s="48" t="s">
+        <v>355</v>
+      </c>
+      <c r="C38" s="48" t="s">
+        <v>356</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="49">
+        <v>26</v>
+      </c>
+      <c r="B39" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="48" t="s">
+        <v>357</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="49">
+        <v>27</v>
+      </c>
+      <c r="B40" s="48" t="s">
+        <v>358</v>
+      </c>
+      <c r="C40" s="48" t="s">
+        <v>359</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="A41" s="49">
+        <v>28</v>
+      </c>
+      <c r="B41" s="48" t="s">
+        <v>360</v>
+      </c>
+      <c r="C41" s="48" t="s">
+        <v>361</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="A42" s="49">
+        <v>28</v>
+      </c>
+      <c r="B42" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="C42" s="48" t="s">
+        <v>363</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="A43" s="49">
+        <v>29</v>
+      </c>
+      <c r="B43" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="C43" s="48" t="s">
+        <v>365</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="A44" s="49">
+        <v>30</v>
+      </c>
+      <c r="B44" s="48" t="s">
+        <v>366</v>
+      </c>
+      <c r="C44" s="48" t="s">
+        <v>367</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="A45" s="49">
+        <v>30</v>
+      </c>
+      <c r="B45" s="48" t="s">
+        <v>368</v>
+      </c>
+      <c r="C45" s="48" t="s">
+        <v>369</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="A46" s="49">
+        <v>31</v>
+      </c>
+      <c r="B46" s="48" t="s">
+        <v>370</v>
+      </c>
+      <c r="C46" s="48" t="s">
+        <v>371</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="A47" s="49">
+        <v>31</v>
+      </c>
+      <c r="B47" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="C47" s="48" t="s">
+        <v>372</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="A48" s="49">
+        <v>32</v>
+      </c>
+      <c r="B48" s="48" t="s">
+        <v>373</v>
+      </c>
+      <c r="C48" s="48" t="s">
+        <v>374</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="A49" s="49">
+        <v>33</v>
+      </c>
+      <c r="B49" s="48" t="s">
+        <v>375</v>
+      </c>
+      <c r="C49" s="48" t="s">
+        <v>376</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="A50" s="49">
+        <v>34</v>
+      </c>
+      <c r="B50" s="48" t="s">
+        <v>377</v>
+      </c>
+      <c r="C50" s="48" t="s">
+        <v>378</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="A51" s="49">
+        <v>35</v>
+      </c>
+      <c r="B51" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="C51" s="48" t="s">
+        <v>380</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="A52" s="49">
+        <v>35</v>
+      </c>
+      <c r="B52" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="C52" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="A53" s="50"/>
+      <c r="B53" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="A54" s="50"/>
+      <c r="B54" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="C54" s="52" t="s">
+        <v>385</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="A55" s="50"/>
+      <c r="B55" s="51" t="s">
+        <v>386</v>
+      </c>
+      <c r="C55" s="52" t="s">
+        <v>387</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="A56" s="50"/>
+      <c r="B56" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="A57" s="50"/>
+      <c r="B57" s="51" t="s">
+        <v>388</v>
+      </c>
+      <c r="C57" s="52" t="s">
+        <v>389</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="A58" s="53"/>
+      <c r="B58" s="54" t="s">
+        <v>390</v>
+      </c>
+      <c r="C58" s="52" t="s">
+        <v>391</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="A59" s="55"/>
+      <c r="B59" s="56" t="s">
+        <v>392</v>
+      </c>
+      <c r="C59" s="52" t="s">
+        <v>393</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="A60" s="55"/>
+      <c r="B60" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="C60" s="52" t="s">
+        <v>395</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="A61" s="50"/>
+      <c r="B61" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="C61" s="57" t="s">
+        <v>396</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="A62" s="53"/>
+      <c r="B62" s="54" t="s">
+        <v>397</v>
+      </c>
+      <c r="C62" s="52" t="s">
+        <v>398</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="A63" s="53"/>
+      <c r="B63" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="C63" s="52" t="s">
+        <v>265</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="A64" s="53"/>
+      <c r="B64" s="54" t="s">
+        <v>399</v>
+      </c>
+      <c r="C64" s="52" t="s">
+        <v>400</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="A65" s="53"/>
+      <c r="B65" s="54" t="s">
         <v>266</v>
       </c>
-      <c r="C25" s="50" t="s">
-        <v>337</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="51">
-        <v>17</v>
-      </c>
-      <c r="B26" s="50" t="s">
-        <v>338</v>
-      </c>
-      <c r="C26" s="50" t="s">
-        <v>339</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="51">
-        <v>18</v>
-      </c>
-      <c r="B27" s="50" t="s">
-        <v>340</v>
-      </c>
-      <c r="C27" s="50" t="s">
-        <v>341</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="51">
-        <v>18</v>
-      </c>
-      <c r="B28" s="50" t="s">
-        <v>342</v>
-      </c>
-      <c r="C28" s="50" t="s">
-        <v>343</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="51">
-        <v>19</v>
-      </c>
-      <c r="B29" s="50" t="s">
-        <v>344</v>
-      </c>
-      <c r="C29" s="50" t="s">
-        <v>345</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="51">
-        <v>20</v>
-      </c>
-      <c r="B30" s="50" t="s">
-        <v>346</v>
-      </c>
-      <c r="C30" s="50" t="s">
-        <v>347</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="51">
-        <v>21</v>
-      </c>
-      <c r="B31" s="50" t="s">
+      <c r="C65" s="52" t="s">
+        <v>268</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="A66" s="53"/>
+      <c r="B66" s="54" t="s">
+        <v>269</v>
+      </c>
+      <c r="C66" s="52" t="s">
+        <v>271</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="A67" s="53"/>
+      <c r="B67" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="C67" s="52" t="s">
+        <v>402</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="A68" s="53"/>
+      <c r="B68" s="54" t="s">
+        <v>403</v>
+      </c>
+      <c r="C68" s="52" t="s">
+        <v>404</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="A69" s="53"/>
+      <c r="B69" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="C31" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="51">
-        <v>21</v>
-      </c>
-      <c r="B32" s="50" t="s">
-        <v>348</v>
-      </c>
-      <c r="C32" s="50" t="s">
-        <v>349</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="51">
-        <v>22</v>
-      </c>
-      <c r="B33" s="50" t="s">
-        <v>350</v>
-      </c>
-      <c r="C33" s="50" t="s">
-        <v>351</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="51">
-        <v>22</v>
-      </c>
-      <c r="B34" s="50" t="s">
-        <v>352</v>
-      </c>
-      <c r="C34" s="50" t="s">
-        <v>353</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="51">
-        <v>23</v>
-      </c>
-      <c r="B35" s="50" t="s">
-        <v>354</v>
-      </c>
-      <c r="C35" s="50" t="s">
-        <v>355</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="51">
-        <v>24</v>
-      </c>
-      <c r="B36" s="50" t="s">
-        <v>356</v>
-      </c>
-      <c r="C36" s="50" t="s">
-        <v>357</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="51">
-        <v>24</v>
-      </c>
-      <c r="B37" s="50" t="s">
-        <v>175</v>
-      </c>
-      <c r="C37" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="51">
-        <v>25</v>
-      </c>
-      <c r="B38" s="50" t="s">
-        <v>358</v>
-      </c>
-      <c r="C38" s="50" t="s">
-        <v>359</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="51">
-        <v>26</v>
-      </c>
-      <c r="B39" s="50" t="s">
+      <c r="C69" s="52" t="s">
+        <v>405</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B70" s="58" t="s">
+        <v>386</v>
+      </c>
+      <c r="C70" s="59" t="s">
+        <v>387</v>
+      </c>
+      <c r="D70" s="59" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B71" s="60" t="s">
+        <v>407</v>
+      </c>
+      <c r="C71" s="59" t="s">
+        <v>408</v>
+      </c>
+      <c r="D71" s="59" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B72" s="60" t="s">
+        <v>409</v>
+      </c>
+      <c r="C72" s="59" t="s">
+        <v>444</v>
+      </c>
+      <c r="D72" s="59" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B73" s="60" t="s">
+        <v>410</v>
+      </c>
+      <c r="C73" s="59" t="s">
+        <v>411</v>
+      </c>
+      <c r="D73" s="59" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B74" s="60" t="s">
+        <v>412</v>
+      </c>
+      <c r="C74" s="59" t="s">
+        <v>413</v>
+      </c>
+      <c r="D74" s="59" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B75" s="60" t="s">
+        <v>414</v>
+      </c>
+      <c r="C75" s="59" t="s">
+        <v>415</v>
+      </c>
+      <c r="D75" s="59" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B76" s="60" t="s">
+        <v>416</v>
+      </c>
+      <c r="C76" s="59" t="s">
+        <v>417</v>
+      </c>
+      <c r="D76" s="59" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B77" s="60" t="s">
+        <v>418</v>
+      </c>
+      <c r="C77" s="59" t="s">
+        <v>419</v>
+      </c>
+      <c r="D77" s="59" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B78" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="C78" s="59" t="s">
+        <v>420</v>
+      </c>
+      <c r="D78" s="59" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B79" s="60" t="s">
+        <v>421</v>
+      </c>
+      <c r="C79" s="59" t="s">
+        <v>422</v>
+      </c>
+      <c r="D79" s="59" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B80" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="50" t="s">
-        <v>360</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="51">
-        <v>27</v>
-      </c>
-      <c r="B40" s="50" t="s">
-        <v>361</v>
-      </c>
-      <c r="C40" s="50" t="s">
-        <v>362</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A41" s="51">
-        <v>28</v>
-      </c>
-      <c r="B41" s="50" t="s">
-        <v>363</v>
-      </c>
-      <c r="C41" s="50" t="s">
-        <v>364</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A42" s="51">
-        <v>28</v>
-      </c>
-      <c r="B42" s="50" t="s">
-        <v>365</v>
-      </c>
-      <c r="C42" s="50" t="s">
-        <v>366</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A43" s="51">
-        <v>29</v>
-      </c>
-      <c r="B43" s="50" t="s">
-        <v>367</v>
-      </c>
-      <c r="C43" s="50" t="s">
-        <v>368</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A44" s="51">
-        <v>30</v>
-      </c>
-      <c r="B44" s="50" t="s">
-        <v>369</v>
-      </c>
-      <c r="C44" s="50" t="s">
-        <v>370</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A45" s="51">
-        <v>30</v>
-      </c>
-      <c r="B45" s="50" t="s">
-        <v>371</v>
-      </c>
-      <c r="C45" s="50" t="s">
-        <v>372</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A46" s="51">
-        <v>31</v>
-      </c>
-      <c r="B46" s="50" t="s">
-        <v>373</v>
-      </c>
-      <c r="C46" s="50" t="s">
-        <v>374</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A47" s="51">
-        <v>31</v>
-      </c>
-      <c r="B47" s="50" t="s">
-        <v>262</v>
-      </c>
-      <c r="C47" s="50" t="s">
-        <v>375</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A48" s="51">
-        <v>32</v>
-      </c>
-      <c r="B48" s="50" t="s">
-        <v>376</v>
-      </c>
-      <c r="C48" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A49" s="51">
-        <v>33</v>
-      </c>
-      <c r="B49" s="50" t="s">
-        <v>378</v>
-      </c>
-      <c r="C49" s="50" t="s">
-        <v>379</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A50" s="51">
-        <v>34</v>
-      </c>
-      <c r="B50" s="50" t="s">
-        <v>380</v>
-      </c>
-      <c r="C50" s="50" t="s">
-        <v>381</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A51" s="51">
-        <v>35</v>
-      </c>
-      <c r="B51" s="50" t="s">
-        <v>382</v>
-      </c>
-      <c r="C51" s="50" t="s">
-        <v>383</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A52" s="51">
-        <v>35</v>
-      </c>
-      <c r="B52" s="50" t="s">
-        <v>384</v>
-      </c>
-      <c r="C52" s="50" t="s">
-        <v>385</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A53" s="52"/>
-      <c r="B53" s="53" t="s">
-        <v>136</v>
-      </c>
-      <c r="C53" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A54" s="52"/>
-      <c r="B54" s="53" t="s">
-        <v>387</v>
-      </c>
-      <c r="C54" s="54" t="s">
-        <v>388</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A55" s="52"/>
-      <c r="B55" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="C55" s="54" t="s">
-        <v>390</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A56" s="52"/>
-      <c r="B56" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="C56" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A57" s="52"/>
-      <c r="B57" s="53" t="s">
-        <v>391</v>
-      </c>
-      <c r="C57" s="54" t="s">
-        <v>392</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A58" s="55"/>
-      <c r="B58" s="56" t="s">
-        <v>393</v>
-      </c>
-      <c r="C58" s="54" t="s">
-        <v>394</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A59" s="57"/>
-      <c r="B59" s="58" t="s">
-        <v>395</v>
-      </c>
-      <c r="C59" s="54" t="s">
-        <v>396</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A60" s="57"/>
-      <c r="B60" s="58" t="s">
-        <v>397</v>
-      </c>
-      <c r="C60" s="54" t="s">
-        <v>398</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A61" s="52"/>
-      <c r="B61" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="C61" s="59" t="s">
-        <v>399</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A62" s="55"/>
-      <c r="B62" s="56" t="s">
-        <v>400</v>
-      </c>
-      <c r="C62" s="54" t="s">
-        <v>401</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A63" s="55"/>
-      <c r="B63" s="56" t="s">
-        <v>266</v>
-      </c>
-      <c r="C63" s="54" t="s">
-        <v>268</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A64" s="55"/>
-      <c r="B64" s="56" t="s">
-        <v>402</v>
-      </c>
-      <c r="C64" s="54" t="s">
-        <v>403</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A65" s="55"/>
-      <c r="B65" s="56" t="s">
-        <v>269</v>
-      </c>
-      <c r="C65" s="54" t="s">
-        <v>271</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A66" s="55"/>
-      <c r="B66" s="56" t="s">
-        <v>272</v>
-      </c>
-      <c r="C66" s="54" t="s">
-        <v>274</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A67" s="55"/>
-      <c r="B67" s="56" t="s">
-        <v>404</v>
-      </c>
-      <c r="C67" s="54" t="s">
-        <v>405</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A68" s="55"/>
-      <c r="B68" s="56" t="s">
+      <c r="C80" s="59" t="s">
+        <v>423</v>
+      </c>
+      <c r="D80" s="59" t="s">
         <v>406</v>
       </c>
-      <c r="C68" s="54" t="s">
-        <v>407</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A69" s="55"/>
-      <c r="B69" s="56" t="s">
-        <v>275</v>
-      </c>
-      <c r="C69" s="54" t="s">
-        <v>408</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="B70" s="60" t="s">
-        <v>389</v>
-      </c>
-      <c r="C70" s="61" t="s">
-        <v>390</v>
-      </c>
-      <c r="D70" s="61" t="s">
+    </row>
+    <row r="81" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B81" s="58" t="s">
+        <v>424</v>
+      </c>
+      <c r="C81" s="59" t="s">
+        <v>425</v>
+      </c>
+      <c r="D81" s="59" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B82" s="60" t="s">
+        <v>426</v>
+      </c>
+      <c r="C82" s="59" t="s">
+        <v>427</v>
+      </c>
+      <c r="D82" s="59" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B83" s="60" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="B71" s="62" t="s">
-        <v>410</v>
-      </c>
-      <c r="C71" s="61" t="s">
-        <v>411</v>
-      </c>
-      <c r="D71" s="61" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="B72" s="62" t="s">
-        <v>412</v>
-      </c>
-      <c r="C72" s="61" t="s">
-        <v>447</v>
-      </c>
-      <c r="D72" s="61" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="B73" s="62" t="s">
-        <v>413</v>
-      </c>
-      <c r="C73" s="61" t="s">
-        <v>414</v>
-      </c>
-      <c r="D73" s="61" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="B74" s="62" t="s">
-        <v>415</v>
-      </c>
-      <c r="C74" s="61" t="s">
+      <c r="C83" s="59" t="s">
+        <v>444</v>
+      </c>
+      <c r="D83" s="59" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B84" s="60" t="s">
         <v>416</v>
       </c>
-      <c r="D74" s="61" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="B75" s="62" t="s">
+      <c r="C84" s="59" t="s">
         <v>417</v>
       </c>
-      <c r="C75" s="61" t="s">
-        <v>418</v>
-      </c>
-      <c r="D75" s="61" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="B76" s="62" t="s">
-        <v>419</v>
-      </c>
-      <c r="C76" s="61" t="s">
+      <c r="D84" s="59" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B85" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="C85" s="59" t="s">
+        <v>429</v>
+      </c>
+      <c r="D85" s="59" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B86" s="60" t="s">
+        <v>255</v>
+      </c>
+      <c r="C86" s="59" t="s">
+        <v>430</v>
+      </c>
+      <c r="D86" s="59" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B87" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C87" s="59" t="s">
+        <v>431</v>
+      </c>
+      <c r="D87" s="59" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B88" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="C88" s="59" t="s">
+        <v>432</v>
+      </c>
+      <c r="D88" s="59" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B89" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="C89" s="59" t="s">
+        <v>433</v>
+      </c>
+      <c r="D89" s="59" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B90" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C90" s="59" t="s">
+        <v>423</v>
+      </c>
+      <c r="D90" s="59" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B91" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="C91" s="59" t="s">
+        <v>434</v>
+      </c>
+      <c r="D91" s="59" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B92" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="C92" s="59" t="s">
+        <v>435</v>
+      </c>
+      <c r="D92" s="59" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B93" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="C93" s="59" t="s">
+        <v>436</v>
+      </c>
+      <c r="D93" s="59" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B94" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="C94" s="59" t="s">
         <v>420</v>
       </c>
-      <c r="D76" s="61" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="B77" s="62" t="s">
-        <v>421</v>
-      </c>
-      <c r="C77" s="61" t="s">
-        <v>422</v>
-      </c>
-      <c r="D77" s="61" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="B78" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="C78" s="61" t="s">
-        <v>423</v>
-      </c>
-      <c r="D78" s="61" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="B79" s="62" t="s">
-        <v>424</v>
-      </c>
-      <c r="C79" s="61" t="s">
-        <v>425</v>
-      </c>
-      <c r="D79" s="61" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="B80" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="C80" s="61" t="s">
-        <v>426</v>
-      </c>
-      <c r="D80" s="61" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="B81" s="60" t="s">
-        <v>427</v>
-      </c>
-      <c r="C81" s="61" t="s">
+      <c r="D94" s="59" t="s">
         <v>428</v>
       </c>
-      <c r="D81" s="61" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="B82" s="62" t="s">
-        <v>429</v>
-      </c>
-      <c r="C82" s="61" t="s">
-        <v>430</v>
-      </c>
-      <c r="D82" s="61" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="B83" s="62" t="s">
-        <v>412</v>
-      </c>
-      <c r="C83" s="61" t="s">
-        <v>447</v>
-      </c>
-      <c r="D83" s="61" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="B84" s="62" t="s">
-        <v>419</v>
-      </c>
-      <c r="C84" s="61" t="s">
-        <v>420</v>
-      </c>
-      <c r="D84" s="61" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="B85" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="C85" s="61" t="s">
-        <v>432</v>
-      </c>
-      <c r="D85" s="61" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="B86" s="62" t="s">
-        <v>255</v>
-      </c>
-      <c r="C86" s="61" t="s">
-        <v>433</v>
-      </c>
-      <c r="D86" s="61" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="B87" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="C87" s="61" t="s">
-        <v>434</v>
-      </c>
-      <c r="D87" s="61" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="B88" s="62" t="s">
-        <v>100</v>
-      </c>
-      <c r="C88" s="61" t="s">
-        <v>435</v>
-      </c>
-      <c r="D88" s="61" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="B89" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="C89" s="61" t="s">
-        <v>436</v>
-      </c>
-      <c r="D89" s="61" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="B90" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="C90" s="61" t="s">
-        <v>426</v>
-      </c>
-      <c r="D90" s="61" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="B91" s="62" t="s">
-        <v>112</v>
-      </c>
-      <c r="C91" s="61" t="s">
+    </row>
+    <row r="95" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B95" s="60" t="s">
         <v>437</v>
       </c>
-      <c r="D91" s="61" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="B92" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="C92" s="61" t="s">
+      <c r="C95" s="59" t="s">
         <v>438</v>
       </c>
-      <c r="D92" s="61" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="B93" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="C93" s="61" t="s">
+      <c r="D95" s="59" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B96" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="C96" s="59" t="s">
         <v>439</v>
       </c>
-      <c r="D93" s="61" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="B94" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="C94" s="61" t="s">
-        <v>423</v>
-      </c>
-      <c r="D94" s="61" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="B95" s="62" t="s">
+      <c r="D96" s="59" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B97" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="C97" s="59" t="s">
         <v>440</v>
       </c>
-      <c r="C95" s="61" t="s">
+      <c r="D97" s="59" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B98" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="C98" s="59" t="s">
         <v>441</v>
       </c>
-      <c r="D95" s="61" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="B96" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="C96" s="61" t="s">
+      <c r="D98" s="59" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B99" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="C99" s="59" t="s">
         <v>442</v>
       </c>
-      <c r="D96" s="61" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="B97" s="62" t="s">
-        <v>115</v>
-      </c>
-      <c r="C97" s="61" t="s">
+      <c r="D99" s="59" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B100" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="C100" s="59" t="s">
         <v>443</v>
       </c>
-      <c r="D97" s="61" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="B98" s="62" t="s">
-        <v>118</v>
-      </c>
-      <c r="C98" s="61" t="s">
-        <v>444</v>
-      </c>
-      <c r="D98" s="61" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="B99" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="C99" s="61" t="s">
-        <v>445</v>
-      </c>
-      <c r="D99" s="61" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="B100" s="62" t="s">
-        <v>103</v>
-      </c>
-      <c r="C100" s="61" t="s">
-        <v>446</v>
-      </c>
-      <c r="D100" s="61" t="s">
-        <v>431</v>
+      <c r="D100" s="59" t="s">
+        <v>428</v>
       </c>
     </row>
   </sheetData>

--- a/data/Table S3. Designed and Predicted Sequences.xlsx
+++ b/data/Table S3. Designed and Predicted Sequences.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="25600" windowHeight="14280" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="25600" windowHeight="14280" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ClickTags" sheetId="1" r:id="rId1"/>
     <sheet name="NeuropeptidesNewAndPublished" sheetId="2" r:id="rId2"/>
     <sheet name="InSituMarkers" sheetId="3" r:id="rId3"/>
     <sheet name="FigureMarkers" sheetId="4" r:id="rId4"/>
+    <sheet name="qPCR Primers" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="466">
   <si>
     <t>BarCode</t>
   </si>
@@ -1496,12 +1497,75 @@
   <si>
     <t>Neurogenin</t>
   </si>
+  <si>
+    <t>Primer</t>
+  </si>
+  <si>
+    <t>XLOC _006558</t>
+  </si>
+  <si>
+    <t>XLOC_006558</t>
+  </si>
+  <si>
+    <t>XLOC_006729</t>
+  </si>
+  <si>
+    <t>XLOC_000601</t>
+  </si>
+  <si>
+    <t>XLOC_008048_F_qPCR</t>
+  </si>
+  <si>
+    <t>TGAAAAGtCTGTCCACACAATGGAAACC</t>
+  </si>
+  <si>
+    <t>XLOC_008048_R_qPCR</t>
+  </si>
+  <si>
+    <t>GCTGGTGCACAGTATGATGGACATG</t>
+  </si>
+  <si>
+    <t>XLOC_006558_F_qPCR</t>
+  </si>
+  <si>
+    <t>GACCTGGGTACGCTTACCTCAATAAAGG</t>
+  </si>
+  <si>
+    <t>XLOC_006558_R_qPCR</t>
+  </si>
+  <si>
+    <t>tgcTCCAAAGTTGCTCTATCAGGATGGT</t>
+  </si>
+  <si>
+    <t>XLOC_006729_F_qPCR</t>
+  </si>
+  <si>
+    <t>GGCGATTGGAGCCCGTTTGGTG</t>
+  </si>
+  <si>
+    <t>XLOC_006729_R_qPCR</t>
+  </si>
+  <si>
+    <t>ACAAACTTGGACCGTAAAACTGGT</t>
+  </si>
+  <si>
+    <t>XLOC_000601_F_qPCR</t>
+  </si>
+  <si>
+    <t>GAGGACCAAAACACGAAGCAGAAGATC</t>
+  </si>
+  <si>
+    <t>XLOC_000601_R_qPCR</t>
+  </si>
+  <si>
+    <t>TGGCATCTCTCCAGACAGGTTGG</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1656,6 +1720,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1695,7 +1765,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1788,6 +1858,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2189,7 +2260,7 @@
   </sheetPr>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2557,7 +2628,7 @@
   </sheetPr>
   <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A36" sqref="A36:E36"/>
     </sheetView>
   </sheetViews>
@@ -4725,4 +4796,118 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>454</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>456</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>448</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>458</v>
+      </c>
+      <c r="C4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>460</v>
+      </c>
+      <c r="C5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>449</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>462</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>449</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>464</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>392</v>
+      </c>
+      <c r="B8" t="s">
+        <v>450</v>
+      </c>
+      <c r="C8" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>392</v>
+      </c>
+      <c r="B9" t="s">
+        <v>452</v>
+      </c>
+      <c r="C9" t="s">
+        <v>453</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>